--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="basic_conf" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="665">
   <si>
     <r>
       <rPr>
@@ -39,7 +39,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">GWN76xx</t>
     </r>
@@ -98,7 +98,7 @@
         <color rgb="FF333333"/>
         <rFont val="黑体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">SSH</t>
     </r>
@@ -123,7 +123,7 @@
         <color rgb="FF333333"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">测试主机</t>
     </r>
@@ -133,7 +133,7 @@
         <color rgb="FF333333"/>
         <rFont val="黑体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">IP</t>
     </r>
@@ -157,10 +157,10 @@
     <t xml:space="preserve">测试AP固件版本号</t>
   </si>
   <si>
+    <t xml:space="preserve">1.0.6.32</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.0.6.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0.6.30</t>
   </si>
   <si>
     <t xml:space="preserve">第一项是新固件，即待测固件。第二项是上一版本固件，建议使用已经release 的版本。</t>
@@ -214,7 +214,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">http升级固件</t>
     </r>
@@ -230,10 +230,10 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">192.168.80.5/GWN/7610/1.0.6.32/</t>
+  </si>
+  <si>
     <t xml:space="preserve">192.168.80.5/GWN/7610/1.0.6.31/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.80.5/GWN/7610/1.0.6.30/</t>
   </si>
   <si>
     <t xml:space="preserve">第一项是新固件路径，第二项是旧固件路径。旧固件建议使用已经release 的版本。</t>
@@ -245,7 +245,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https升级固件</t>
     </r>
@@ -267,7 +267,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">tftp升级固件</t>
     </r>
@@ -308,7 +308,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">GWN7000</t>
     </r>
@@ -446,7 +446,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -466,7 +466,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ssid</t>
     </r>
@@ -490,7 +490,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">SSID</t>
     </r>
@@ -515,7 +515,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">SSID</t>
     </r>
@@ -550,7 +550,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">SSID</t>
     </r>
@@ -562,7 +562,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">wep64</t>
     </r>
@@ -596,7 +596,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">wep128</t>
     </r>
@@ -630,7 +630,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">WPA</t>
     </r>
@@ -658,7 +658,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">8</t>
     </r>
@@ -680,7 +680,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">WPA</t>
     </r>
@@ -715,7 +715,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">SSID</t>
     </r>
@@ -887,7 +887,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ssid</t>
     </r>
@@ -964,7 +964,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2.4G,11</t>
     </r>
@@ -984,7 +984,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">master ap</t>
     </r>
@@ -1024,7 +1024,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">5G,161</t>
     </r>
@@ -1044,7 +1044,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">master ap</t>
     </r>
@@ -1136,7 +1136,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ip</t>
     </r>
@@ -1273,7 +1273,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">mac</t>
     </r>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">285.974.112.254</t>
   </si>
   <si>
-    <t xml:space="preserve">不带vlan的网段</t>
+    <t xml:space="preserve">默认的网段</t>
   </si>
   <si>
     <t xml:space="preserve">192.168.1.1/24</t>
@@ -2538,13 +2538,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <family val="0"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2567,7 +2567,7 @@
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <family val="0"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2583,7 +2583,7 @@
       <color rgb="FFFF3333"/>
       <name val="宋体"/>
       <family val="0"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2597,28 +2597,7 @@
       <color rgb="FF333333"/>
       <name val="黑体"/>
       <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="黑体"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2633,7 +2612,7 @@
       <color rgb="FF333333"/>
       <name val="黑体"/>
       <family val="0"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2643,18 +2622,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2743,7 +2715,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2768,22 +2740,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2792,15 +2748,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2812,11 +2776,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2824,11 +2784,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2838,14 +2798,6 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2864,31 +2816,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2972,18 +2916,18 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="126.753488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.1441860465116"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="100.786046511628"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="142.753488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="156.413953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.4232558139535"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="124.167441860465"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9674418604651"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="175.976744186047"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3022,76 +2966,76 @@
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="7"/>
       <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="7"/>
       <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="7"/>
       <c r="E7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="7"/>
       <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="7"/>
       <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="7"/>
       <c r="E10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -3100,7 +3044,7 @@
       <c r="E11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -3114,7 +3058,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -3123,12 +3067,12 @@
       <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3142,7 +3086,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -3151,13 +3095,13 @@
       <c r="E15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="0" t="s">
@@ -3168,53 +3112,53 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="16" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
+    <row r="19" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
+    <row r="20" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -3222,23 +3166,23 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="17"/>
       <c r="E21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="0" t="s">
@@ -3249,10 +3193,10 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E23" s="0"/>
@@ -3294,10 +3238,10 @@
       <c r="A33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="7"/>
       <c r="E33" s="8" t="s">
         <v>54</v>
       </c>
@@ -3306,7 +3250,7 @@
       <c r="A34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3314,7 +3258,7 @@
       <c r="A35" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="17" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3359,12 +3303,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="94.3906976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.6418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.5767441860465"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.6418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="60.7906976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="116.172093023256"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.0697674418605"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="91.6790697674419"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.0697674418605"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="74.5767441860465"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3375,1872 +3318,1872 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="11" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E3" s="36"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="29" t="s">
         <v>396</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E4" s="36"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D5" s="36" t="s">
+      <c r="C5" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="29" t="s">
         <v>406</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D8" s="36" t="s">
+      <c r="C8" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D9" s="36" t="s">
+      <c r="C9" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="29" t="s">
         <v>411</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D10" s="36" t="s">
+      <c r="C10" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="E10" s="36"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="E11" s="36" t="s">
+      <c r="C11" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36" t="s">
+      <c r="C12" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D13" s="36" t="s">
+      <c r="C13" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E14" s="36"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D15" s="36" t="s">
+      <c r="C15" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E15" s="36"/>
+      <c r="E15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36" t="s">
+      <c r="D16" s="29"/>
+      <c r="E16" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36" t="s">
+      <c r="C17" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E18" s="36"/>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="E20" s="36" t="s">
+      <c r="C20" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E20" s="29" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="C21" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D21" s="36" t="s">
+      <c r="C21" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E21" s="36"/>
+      <c r="E21" s="29"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D22" s="36" t="s">
+      <c r="C22" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D22" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E22" s="36"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="29" t="s">
         <v>438</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="C24" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="E24" s="36" t="s">
+      <c r="C24" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="29" t="s">
         <v>442</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D25" s="36" t="s">
+      <c r="C25" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D26" s="36" t="s">
+      <c r="C26" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D26" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="29" t="s">
         <v>446</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D27" s="36" t="s">
+      <c r="C27" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D27" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="29" t="s">
         <v>448</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="29" t="s">
         <v>449</v>
       </c>
-      <c r="C28" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D28" s="36" t="s">
+      <c r="C28" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D28" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="29" t="s">
         <v>450</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D29" s="36" t="s">
+      <c r="C29" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D29" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E29" s="36"/>
+      <c r="E29" s="29"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="29" t="s">
         <v>453</v>
       </c>
-      <c r="C30" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D30" s="36" t="s">
+      <c r="C30" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="29"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D31" s="36" t="s">
+      <c r="C31" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D31" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E31" s="36"/>
+      <c r="E31" s="29"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="29" t="s">
         <v>456</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="29" t="s">
         <v>457</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="29" t="s">
         <v>458</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="29" t="s">
         <v>459</v>
       </c>
-      <c r="C33" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D33" s="36" t="s">
+      <c r="C33" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D33" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="C34" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="E34" s="36"/>
+      <c r="C34" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="C35" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D35" s="36" t="s">
+      <c r="C35" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D35" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D36" s="36" t="s">
+      <c r="C36" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D36" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E36" s="36"/>
+      <c r="E36" s="29"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="29" t="s">
         <v>467</v>
       </c>
-      <c r="C37" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D37" s="36" t="s">
+      <c r="C37" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D37" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E37" s="36"/>
+      <c r="E37" s="29"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="29" t="s">
         <v>468</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="29" t="s">
         <v>469</v>
       </c>
-      <c r="C38" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D38" s="36" t="s">
+      <c r="C38" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D38" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E38" s="36"/>
+      <c r="E38" s="29"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="C39" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D39" s="36" t="s">
+      <c r="C39" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D39" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="E39" s="36"/>
+      <c r="E39" s="29"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="C40" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D40" s="36" t="s">
+      <c r="C40" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D40" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E40" s="36"/>
+      <c r="E40" s="29"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="C41" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D41" s="36" t="s">
+      <c r="C41" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D41" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E41" s="36"/>
+      <c r="E41" s="29"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="C42" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D42" s="36" t="s">
+      <c r="C42" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D42" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E42" s="36"/>
+      <c r="E42" s="29"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="29" t="s">
         <v>480</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="29" t="s">
         <v>483</v>
       </c>
-      <c r="C45" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D45" s="36" t="s">
+      <c r="C45" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D45" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E45" s="36"/>
+      <c r="E45" s="29"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="29" t="s">
         <v>485</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="D46" s="36" t="s">
+      <c r="D46" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="29" t="s">
         <v>486</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="C47" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D47" s="36" t="s">
+      <c r="C47" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D47" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="29" t="s">
         <v>489</v>
       </c>
-      <c r="C48" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D48" s="36" t="s">
+      <c r="C48" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D48" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="29" t="s">
         <v>490</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="C49" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D49" s="36" t="s">
+      <c r="C49" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D49" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E49" s="36"/>
+      <c r="E49" s="29"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="C50" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D50" s="36" t="s">
+      <c r="C50" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D50" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E50" s="36"/>
+      <c r="E50" s="29"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="C51" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D51" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="E51" s="36" t="s">
+      <c r="C51" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E51" s="29" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36" t="s">
+      <c r="D52" s="29"/>
+      <c r="E52" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="29" t="s">
         <v>498</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="C53" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D53" s="36" t="s">
+      <c r="C53" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D53" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E53" s="36"/>
+      <c r="E53" s="29"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="29" t="s">
         <v>500</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="C54" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D54" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="E54" s="36"/>
+      <c r="C54" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E54" s="29"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="C55" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D55" s="36" t="s">
+      <c r="C55" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D55" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E55" s="36"/>
+      <c r="E55" s="29"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="29" t="s">
         <v>504</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="29" t="s">
         <v>505</v>
       </c>
-      <c r="C56" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D56" s="36" t="s">
+      <c r="C56" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D56" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="29" t="s">
         <v>506</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="29" t="s">
         <v>507</v>
       </c>
-      <c r="C57" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D57" s="36" t="s">
+      <c r="C57" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D57" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E57" s="36"/>
+      <c r="E57" s="29"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="29" t="s">
         <v>508</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="29" t="s">
         <v>509</v>
       </c>
-      <c r="C58" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D58" s="36" t="s">
+      <c r="C58" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D58" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E58" s="36" t="s">
+      <c r="E58" s="29" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="29" t="s">
         <v>510</v>
       </c>
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="29" t="s">
         <v>511</v>
       </c>
-      <c r="C59" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
+      <c r="C59" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="36" t="s">
+      <c r="A60" s="29" t="s">
         <v>512</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="C60" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D60" s="36" t="s">
+      <c r="C60" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D60" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E60" s="36" t="s">
+      <c r="E60" s="29" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="36" t="s">
+      <c r="A61" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="C61" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D61" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="E61" s="36"/>
+      <c r="C61" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E61" s="29"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="29" t="s">
         <v>516</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="29" t="s">
         <v>517</v>
       </c>
-      <c r="C62" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D62" s="36" t="s">
+      <c r="C62" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D62" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E62" s="36"/>
+      <c r="E62" s="29"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="36" t="s">
+      <c r="A63" s="29" t="s">
         <v>518</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="29" t="s">
         <v>519</v>
       </c>
-      <c r="C63" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D63" s="36" t="s">
+      <c r="C63" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D63" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E63" s="36" t="s">
+      <c r="E63" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="29" t="s">
         <v>520</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="29" t="s">
         <v>521</v>
       </c>
-      <c r="C64" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D64" s="36" t="s">
+      <c r="C64" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D64" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E64" s="36"/>
+      <c r="E64" s="29"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="36" t="s">
+      <c r="A65" s="29" t="s">
         <v>522</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="29" t="s">
         <v>523</v>
       </c>
-      <c r="C65" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D65" s="36" t="s">
+      <c r="C65" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D65" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E65" s="36"/>
+      <c r="E65" s="29"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="29" t="s">
         <v>525</v>
       </c>
-      <c r="C66" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D66" s="36" t="s">
+      <c r="C66" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D66" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E66" s="36"/>
+      <c r="E66" s="29"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="36" t="s">
+      <c r="A67" s="29" t="s">
         <v>526</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="C67" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D67" s="36" t="s">
+      <c r="C67" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D67" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E67" s="36" t="s">
+      <c r="E67" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="36" t="s">
+      <c r="A68" s="29" t="s">
         <v>528</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="29" t="s">
         <v>529</v>
       </c>
-      <c r="C68" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D68" s="36" t="s">
+      <c r="C68" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D68" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E68" s="36"/>
+      <c r="E68" s="29"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="C69" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D69" s="36" t="s">
+      <c r="C69" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D69" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E69" s="36" t="s">
+      <c r="E69" s="29" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="36" t="s">
+      <c r="A70" s="29" t="s">
         <v>532</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="C70" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D70" s="36" t="s">
+      <c r="C70" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D70" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E70" s="36"/>
+      <c r="E70" s="29"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="36" t="s">
+      <c r="A71" s="29" t="s">
         <v>534</v>
       </c>
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="29" t="s">
         <v>535</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="D71" s="36" t="s">
+      <c r="D71" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E71" s="36" t="s">
+      <c r="E71" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="36" t="s">
+      <c r="A72" s="29" t="s">
         <v>536</v>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="C72" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D72" s="36" t="s">
+      <c r="C72" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D72" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E72" s="36"/>
+      <c r="E72" s="29"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="36" t="s">
+      <c r="A73" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="29" t="s">
         <v>539</v>
       </c>
-      <c r="C73" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D73" s="36" t="s">
+      <c r="C73" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D73" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E73" s="36"/>
+      <c r="E73" s="29"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="29" t="s">
         <v>540</v>
       </c>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="29" t="s">
         <v>541</v>
       </c>
-      <c r="C74" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D74" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="E74" s="36"/>
+      <c r="C74" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E74" s="29"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="36" t="s">
+      <c r="A75" s="29" t="s">
         <v>542</v>
       </c>
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="29" t="s">
         <v>543</v>
       </c>
-      <c r="C75" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D75" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="E75" s="36" t="s">
+      <c r="C75" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E75" s="29" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="36" t="s">
+      <c r="A76" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="C76" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D76" s="36" t="s">
+      <c r="C76" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D76" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E76" s="36"/>
+      <c r="E76" s="29"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="36" t="s">
+      <c r="A77" s="29" t="s">
         <v>546</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="29" t="s">
         <v>547</v>
       </c>
-      <c r="C77" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D77" s="36" t="s">
+      <c r="C77" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D77" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E77" s="36"/>
+      <c r="E77" s="29"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="36" t="s">
+      <c r="A78" s="29" t="s">
         <v>548</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="29" t="s">
         <v>549</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="D78" s="36" t="s">
+      <c r="D78" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E78" s="36" t="s">
+      <c r="E78" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="36" t="s">
+      <c r="A79" s="29" t="s">
         <v>550</v>
       </c>
-      <c r="B79" s="36" t="s">
+      <c r="B79" s="29" t="s">
         <v>551</v>
       </c>
-      <c r="C79" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D79" s="36" t="s">
+      <c r="C79" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D79" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E79" s="36"/>
+      <c r="E79" s="29"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="36" t="s">
+      <c r="A80" s="29" t="s">
         <v>552</v>
       </c>
-      <c r="B80" s="36" t="s">
+      <c r="B80" s="29" t="s">
         <v>553</v>
       </c>
-      <c r="C80" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D80" s="36" t="s">
+      <c r="C80" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D80" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E80" s="36"/>
+      <c r="E80" s="29"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="36" t="s">
+      <c r="A81" s="29" t="s">
         <v>554</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="29" t="s">
         <v>555</v>
       </c>
-      <c r="C81" s="36" t="s">
+      <c r="C81" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36" t="s">
+      <c r="D81" s="29"/>
+      <c r="E81" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="36" t="s">
+      <c r="A82" s="29" t="s">
         <v>556</v>
       </c>
-      <c r="B82" s="36" t="s">
+      <c r="B82" s="29" t="s">
         <v>557</v>
       </c>
-      <c r="C82" s="36" t="s">
+      <c r="C82" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="D82" s="36" t="s">
+      <c r="D82" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="E82" s="36" t="s">
+      <c r="E82" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="36" t="s">
+      <c r="A83" s="29" t="s">
         <v>558</v>
       </c>
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="29" t="s">
         <v>559</v>
       </c>
-      <c r="C83" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D83" s="36" t="s">
+      <c r="C83" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D83" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E83" s="36" t="s">
+      <c r="E83" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="29" t="s">
         <v>560</v>
       </c>
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="29" t="s">
         <v>561</v>
       </c>
-      <c r="C84" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D84" s="36" t="s">
+      <c r="C84" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D84" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E84" s="36" t="s">
+      <c r="E84" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="36" t="s">
+      <c r="A85" s="29" t="s">
         <v>562</v>
       </c>
-      <c r="B85" s="36" t="s">
+      <c r="B85" s="29" t="s">
         <v>563</v>
       </c>
-      <c r="C85" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D85" s="36" t="s">
+      <c r="C85" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D85" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E85" s="36" t="s">
+      <c r="E85" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="36" t="s">
+      <c r="A86" s="29" t="s">
         <v>564</v>
       </c>
-      <c r="B86" s="36" t="s">
+      <c r="B86" s="29" t="s">
         <v>565</v>
       </c>
-      <c r="C86" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D86" s="36" t="s">
+      <c r="C86" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D86" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E86" s="36"/>
+      <c r="E86" s="29"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="36" t="s">
+      <c r="A87" s="29" t="s">
         <v>566</v>
       </c>
-      <c r="B87" s="36" t="s">
+      <c r="B87" s="29" t="s">
         <v>567</v>
       </c>
-      <c r="C87" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D87" s="36" t="s">
+      <c r="C87" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D87" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E87" s="36"/>
+      <c r="E87" s="29"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="36" t="s">
+      <c r="A88" s="29" t="s">
         <v>568</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="29" t="s">
         <v>569</v>
       </c>
-      <c r="C88" s="36" t="s">
+      <c r="C88" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="D88" s="36" t="s">
+      <c r="D88" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E88" s="36" t="s">
+      <c r="E88" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="36" t="s">
+      <c r="A89" s="29" t="s">
         <v>570</v>
       </c>
-      <c r="B89" s="36" t="s">
+      <c r="B89" s="29" t="s">
         <v>571</v>
       </c>
-      <c r="C89" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36" t="s">
+      <c r="C89" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="36" t="s">
+      <c r="A90" s="29" t="s">
         <v>572</v>
       </c>
-      <c r="B90" s="36" t="s">
+      <c r="B90" s="29" t="s">
         <v>573</v>
       </c>
-      <c r="C90" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D90" s="36" t="s">
+      <c r="C90" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D90" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E90" s="36"/>
+      <c r="E90" s="29"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="36" t="s">
+      <c r="A91" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="C91" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D91" s="36" t="s">
+      <c r="C91" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D91" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E91" s="36"/>
+      <c r="E91" s="29"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="36" t="s">
+      <c r="A92" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="B92" s="36" t="s">
+      <c r="B92" s="29" t="s">
         <v>577</v>
       </c>
-      <c r="C92" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D92" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="E92" s="36" t="s">
+      <c r="C92" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D92" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E92" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="36" t="s">
+      <c r="A93" s="29" t="s">
         <v>578</v>
       </c>
-      <c r="B93" s="36" t="s">
+      <c r="B93" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="C93" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D93" s="36" t="s">
+      <c r="C93" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D93" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E93" s="36" t="s">
+      <c r="E93" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="36" t="s">
+      <c r="A94" s="29" t="s">
         <v>580</v>
       </c>
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="C94" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D94" s="36" t="s">
+      <c r="C94" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D94" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E94" s="36"/>
+      <c r="E94" s="29"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="36" t="s">
+      <c r="A95" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="B95" s="36" t="s">
+      <c r="B95" s="29" t="s">
         <v>583</v>
       </c>
-      <c r="C95" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D95" s="36" t="s">
+      <c r="C95" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D95" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E95" s="36" t="s">
+      <c r="E95" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="36" t="s">
+      <c r="A96" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="B96" s="36" t="s">
+      <c r="B96" s="29" t="s">
         <v>585</v>
       </c>
-      <c r="C96" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D96" s="36" t="s">
+      <c r="C96" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D96" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E96" s="36"/>
+      <c r="E96" s="29"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="36" t="s">
+      <c r="A97" s="29" t="s">
         <v>586</v>
       </c>
-      <c r="B97" s="36" t="s">
+      <c r="B97" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="C97" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D97" s="36" t="s">
+      <c r="C97" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D97" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E97" s="36"/>
+      <c r="E97" s="29"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="36" t="s">
+      <c r="A98" s="29" t="s">
         <v>588</v>
       </c>
-      <c r="B98" s="36" t="s">
+      <c r="B98" s="29" t="s">
         <v>589</v>
       </c>
-      <c r="C98" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D98" s="36" t="s">
+      <c r="C98" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D98" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E98" s="36" t="s">
+      <c r="E98" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="36" t="s">
+      <c r="A99" s="29" t="s">
         <v>590</v>
       </c>
-      <c r="B99" s="36" t="s">
+      <c r="B99" s="29" t="s">
         <v>591</v>
       </c>
-      <c r="C99" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D99" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="E99" s="36" t="s">
+      <c r="C99" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D99" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E99" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="36" t="s">
+      <c r="A100" s="29" t="s">
         <v>592</v>
       </c>
-      <c r="B100" s="36" t="s">
+      <c r="B100" s="29" t="s">
         <v>593</v>
       </c>
-      <c r="C100" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D100" s="36" t="s">
+      <c r="C100" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D100" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E100" s="36"/>
+      <c r="E100" s="29"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="36" t="s">
+      <c r="A101" s="29" t="s">
         <v>594</v>
       </c>
-      <c r="B101" s="36" t="s">
+      <c r="B101" s="29" t="s">
         <v>595</v>
       </c>
-      <c r="C101" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D101" s="36" t="s">
+      <c r="C101" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D101" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E101" s="36" t="s">
+      <c r="E101" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="36" t="s">
+      <c r="A102" s="29" t="s">
         <v>596</v>
       </c>
-      <c r="B102" s="36" t="s">
+      <c r="B102" s="29" t="s">
         <v>597</v>
       </c>
-      <c r="C102" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D102" s="36" t="s">
+      <c r="C102" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D102" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E102" s="36"/>
+      <c r="E102" s="29"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="36" t="s">
+      <c r="A103" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="B103" s="36" t="s">
+      <c r="B103" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="C103" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D103" s="36" t="s">
+      <c r="C103" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D103" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E103" s="36"/>
+      <c r="E103" s="29"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="36" t="s">
+      <c r="A104" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="B104" s="36" t="s">
+      <c r="B104" s="29" t="s">
         <v>601</v>
       </c>
-      <c r="C104" s="36" t="s">
+      <c r="C104" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="D104" s="36" t="s">
+      <c r="D104" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E104" s="36" t="s">
+      <c r="E104" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="36" t="s">
+      <c r="A105" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="C105" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D105" s="36" t="s">
+      <c r="C105" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D105" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E105" s="36" t="s">
+      <c r="E105" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="36" t="s">
+      <c r="A106" s="29" t="s">
         <v>604</v>
       </c>
-      <c r="B106" s="36" t="s">
+      <c r="B106" s="29" t="s">
         <v>605</v>
       </c>
-      <c r="C106" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D106" s="36" t="s">
+      <c r="C106" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D106" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E106" s="36" t="s">
+      <c r="E106" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="36" t="s">
+      <c r="A107" s="29" t="s">
         <v>606</v>
       </c>
-      <c r="B107" s="36" t="s">
+      <c r="B107" s="29" t="s">
         <v>607</v>
       </c>
-      <c r="C107" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D107" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="E107" s="36"/>
+      <c r="C107" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D107" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E107" s="29"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="36" t="s">
+      <c r="A108" s="29" t="s">
         <v>608</v>
       </c>
-      <c r="B108" s="36" t="s">
+      <c r="B108" s="29" t="s">
         <v>609</v>
       </c>
-      <c r="C108" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D108" s="36" t="s">
+      <c r="C108" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D108" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E108" s="36"/>
+      <c r="E108" s="29"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="36" t="s">
+      <c r="A109" s="29" t="s">
         <v>610</v>
       </c>
-      <c r="B109" s="36" t="s">
+      <c r="B109" s="29" t="s">
         <v>611</v>
       </c>
-      <c r="C109" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D109" s="36" t="s">
+      <c r="C109" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D109" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E109" s="36" t="s">
+      <c r="E109" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="36" t="s">
+      <c r="A110" s="29" t="s">
         <v>612</v>
       </c>
-      <c r="B110" s="36" t="s">
+      <c r="B110" s="29" t="s">
         <v>613</v>
       </c>
-      <c r="C110" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D110" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="E110" s="36" t="s">
+      <c r="C110" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D110" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E110" s="29" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="36" t="s">
+      <c r="A111" s="29" t="s">
         <v>614</v>
       </c>
-      <c r="B111" s="36" t="s">
+      <c r="B111" s="29" t="s">
         <v>615</v>
       </c>
-      <c r="C111" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D111" s="36" t="s">
+      <c r="C111" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D111" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E111" s="36" t="s">
+      <c r="E111" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="36" t="s">
+      <c r="A112" s="29" t="s">
         <v>616</v>
       </c>
-      <c r="B112" s="36" t="s">
+      <c r="B112" s="29" t="s">
         <v>617</v>
       </c>
-      <c r="C112" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D112" s="36" t="s">
+      <c r="C112" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D112" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E112" s="36"/>
+      <c r="E112" s="29"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="36" t="s">
+      <c r="A113" s="29" t="s">
         <v>618</v>
       </c>
-      <c r="B113" s="36" t="s">
+      <c r="B113" s="29" t="s">
         <v>619</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C113" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="D113" s="36" t="s">
+      <c r="D113" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E113" s="36" t="s">
+      <c r="E113" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="36" t="s">
+      <c r="A114" s="29" t="s">
         <v>620</v>
       </c>
-      <c r="B114" s="36" t="s">
+      <c r="B114" s="29" t="s">
         <v>621</v>
       </c>
-      <c r="C114" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D114" s="36" t="s">
+      <c r="C114" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D114" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E114" s="36" t="s">
+      <c r="E114" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="36" t="s">
+      <c r="A115" s="29" t="s">
         <v>622</v>
       </c>
-      <c r="B115" s="36" t="s">
+      <c r="B115" s="29" t="s">
         <v>623</v>
       </c>
-      <c r="C115" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D115" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="E115" s="36"/>
+      <c r="C115" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D115" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E115" s="29"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="36" t="s">
+      <c r="A116" s="29" t="s">
         <v>624</v>
       </c>
-      <c r="B116" s="36" t="s">
+      <c r="B116" s="29" t="s">
         <v>625</v>
       </c>
-      <c r="C116" s="36" t="s">
+      <c r="C116" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="D116" s="36" t="s">
+      <c r="D116" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E116" s="36" t="s">
+      <c r="E116" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="36" t="s">
+      <c r="A117" s="29" t="s">
         <v>626</v>
       </c>
-      <c r="B117" s="36" t="s">
+      <c r="B117" s="29" t="s">
         <v>627</v>
       </c>
-      <c r="C117" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D117" s="36" t="s">
+      <c r="C117" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D117" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E117" s="36" t="s">
+      <c r="E117" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="36" t="s">
+      <c r="A118" s="29" t="s">
         <v>628</v>
       </c>
-      <c r="B118" s="36" t="s">
+      <c r="B118" s="29" t="s">
         <v>629</v>
       </c>
-      <c r="C118" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
+      <c r="C118" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="36" t="s">
+      <c r="A119" s="29" t="s">
         <v>630</v>
       </c>
-      <c r="B119" s="36" t="s">
+      <c r="B119" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="C119" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D119" s="36" t="s">
+      <c r="C119" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D119" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E119" s="36"/>
+      <c r="E119" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5263,15 +5206,15 @@
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.5023255813954"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.0093023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.0232558139535"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.7162790697675"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5354,6 +5297,14 @@
         <v>130</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
     <row r="13" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>641</v>
@@ -5363,7 +5314,7 @@
       <c r="A14" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>643</v>
       </c>
     </row>
@@ -5379,15 +5330,15 @@
       <c r="A16" s="0" t="s">
         <v>646</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="17" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="17" t="s">
         <v>648</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="17" t="s">
         <v>649</v>
       </c>
     </row>
@@ -5395,7 +5346,7 @@
       <c r="A18" s="0" t="s">
         <v>650</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="17" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5408,7 +5359,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="17" t="s">
         <v>654</v>
       </c>
     </row>
@@ -5440,7 +5391,7 @@
       <c r="A25" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="17" t="s">
         <v>662</v>
       </c>
     </row>
@@ -5448,7 +5399,7 @@
       <c r="A26" s="0" t="s">
         <v>663</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="17" t="s">
         <v>664</v>
       </c>
     </row>
@@ -5476,43 +5427,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="128.479069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="143.120930232558"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="158.381395348837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="176.348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -5520,7 +5471,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -5528,7 +5479,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -5536,7 +5487,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -5544,7 +5495,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -5552,7 +5503,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B9" s="0" t="s">
@@ -5563,26 +5514,26 @@
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="17"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -5624,31 +5575,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="106.204651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="125.893023255814"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="83.9302325581395"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="66.3302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="195.544186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="130.693023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="155.181395348837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="103.125581395349"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="81.4651162790698"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="241.325581395349"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5656,31 +5607,31 @@
       <c r="A3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="22" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5688,55 +5639,55 @@
       <c r="A6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D11" s="0" t="s">
@@ -5747,13 +5698,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>104</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -5764,13 +5715,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -5778,25 +5729,25 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="E14" s="27"/>
+      <c r="C14" s="7"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="26" t="s">
         <v>115</v>
       </c>
       <c r="B18" s="0" t="s">
@@ -5804,7 +5755,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="26" t="s">
         <v>117</v>
       </c>
       <c r="B19" s="0" t="s">
@@ -5812,7 +5763,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="26" t="s">
         <v>119</v>
       </c>
       <c r="B20" s="0" t="s">
@@ -5820,7 +5771,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="26" t="s">
         <v>121</v>
       </c>
       <c r="B21" s="0" t="s">
@@ -5828,7 +5779,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="26" t="s">
         <v>123</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -5836,7 +5787,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -5852,7 +5803,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="17" t="s">
         <v>129</v>
       </c>
       <c r="B25" s="0" t="s">
@@ -5886,34 +5837,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.7627906976744"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.9488372093023"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="131.186046511628"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.3488372093023"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.5162790697674"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="161.455813953488"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -5921,15 +5872,15 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="26" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>136</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -5937,7 +5888,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>138</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -5945,7 +5896,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>140</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -5953,7 +5904,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -5961,7 +5912,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>144</v>
       </c>
       <c r="B9" s="0" t="s">
@@ -5969,7 +5920,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>145</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -5977,38 +5928,38 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16"/>
+      <c r="A11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16"/>
+      <c r="A12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16"/>
+      <c r="A13" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="14" t="s">
         <v>149</v>
       </c>
       <c r="B33" s="0" t="s">
@@ -6019,10 +5970,10 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="26" t="s">
         <v>153</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -6030,7 +5981,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="14" t="s">
         <v>155</v>
       </c>
       <c r="B35" s="0" t="s">
@@ -6041,10 +5992,10 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="17" t="s">
         <v>159</v>
       </c>
       <c r="E36" s="8" t="s">
@@ -6052,7 +6003,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="0" t="s">
@@ -6063,10 +6014,10 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="26" t="s">
         <v>165</v>
       </c>
       <c r="E38" s="8" t="s">
@@ -6083,18 +6034,18 @@
       <c r="E41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="14" t="s">
         <v>169</v>
       </c>
       <c r="B43" s="0" t="s">
@@ -6105,7 +6056,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="14" t="s">
         <v>171</v>
       </c>
       <c r="B44" s="0" t="s">
@@ -6116,7 +6067,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="14" t="s">
         <v>174</v>
       </c>
       <c r="B45" s="0" t="s">
@@ -6127,7 +6078,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="14" t="s">
         <v>176</v>
       </c>
       <c r="B46" s="0" t="s">
@@ -6138,7 +6089,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="14" t="s">
         <v>179</v>
       </c>
       <c r="B47" s="0" t="s">
@@ -6149,7 +6100,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="14" t="s">
         <v>182</v>
       </c>
       <c r="B48" s="0" t="s">
@@ -6207,15 +6158,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="128.479069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="90.6976744186047"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.7906976744186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.6093023255814"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="88.9720930232558"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="132.413953488372"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="123.186046511628"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="158.381395348837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="111.739534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.5767441860465"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.6837209302326"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="109.4"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="163.181395348837"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="151.860465116279"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6242,46 +6193,46 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>189</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="19" t="s">
         <v>189</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="19" t="s">
         <v>189</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -6289,7 +6240,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>190</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -6302,7 +6253,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>190</v>
       </c>
       <c r="G3" s="0" t="n">
@@ -6315,7 +6266,7 @@
         <v>17</v>
       </c>
       <c r="J3" s="8"/>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="14" t="s">
         <v>190</v>
       </c>
       <c r="L3" s="0" t="n">
@@ -6330,7 +6281,7 @@
       <c r="O3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>191</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -6343,7 +6294,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>191</v>
       </c>
       <c r="G4" s="0" t="n">
@@ -6356,7 +6307,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="8"/>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="14" t="s">
         <v>191</v>
       </c>
       <c r="L4" s="0" t="n">
@@ -6371,7 +6322,7 @@
       <c r="O4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>192</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -6383,50 +6334,50 @@
       <c r="D5" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="F5" s="14"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="19" t="s">
         <v>189</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="19" t="s">
         <v>189</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="19" t="s">
         <v>189</v>
       </c>
       <c r="O6" s="4" t="s">
@@ -6434,7 +6385,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>190</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -6447,7 +6398,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>190</v>
       </c>
       <c r="G7" s="0" t="n">
@@ -6460,7 +6411,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="8"/>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="14" t="s">
         <v>190</v>
       </c>
       <c r="L7" s="0" t="n">
@@ -6475,7 +6426,7 @@
       <c r="O7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>191</v>
       </c>
       <c r="B8" s="0" t="n">
@@ -6488,7 +6439,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>191</v>
       </c>
       <c r="G8" s="0" t="n">
@@ -6501,7 +6452,7 @@
         <v>22</v>
       </c>
       <c r="J8" s="8"/>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="14" t="s">
         <v>191</v>
       </c>
       <c r="L8" s="0" t="n">
@@ -6516,7 +6467,7 @@
       <c r="O8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>192</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -6528,43 +6479,43 @@
       <c r="D9" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="F9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="17" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="9" t="s">
         <v>197</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -6572,7 +6523,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="9" t="s">
         <v>198</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -6580,7 +6531,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="9" t="s">
         <v>199</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -6591,7 +6542,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="9" t="s">
         <v>202</v>
       </c>
       <c r="B16" s="0" t="s">
@@ -6602,7 +6553,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="9" t="s">
         <v>205</v>
       </c>
       <c r="B17" s="0" t="s">
@@ -6610,7 +6561,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="9" t="s">
         <v>207</v>
       </c>
       <c r="B18" s="0" t="s">
@@ -6641,31 +6592,31 @@
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="14" t="s">
         <v>215</v>
       </c>
       <c r="B32" s="0" t="s">
@@ -6679,7 +6630,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="14" t="s">
         <v>219</v>
       </c>
       <c r="B33" s="0" t="s">
@@ -6693,7 +6644,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="14" t="s">
         <v>223</v>
       </c>
       <c r="B34" s="0" t="s">
@@ -6701,7 +6652,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="14" t="s">
         <v>225</v>
       </c>
       <c r="B35" s="0" t="s">
@@ -6709,7 +6660,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="14" t="s">
         <v>226</v>
       </c>
       <c r="B36" s="0" t="s">
@@ -6717,7 +6668,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="14" t="s">
         <v>228</v>
       </c>
       <c r="B37" s="0" t="s">
@@ -6725,7 +6676,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="14" t="s">
         <v>230</v>
       </c>
       <c r="B38" s="0" t="s">
@@ -6733,7 +6684,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="14" t="s">
         <v>232</v>
       </c>
       <c r="B39" s="0" t="s">
@@ -6741,7 +6692,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="14" t="s">
         <v>234</v>
       </c>
       <c r="B40" s="0" t="s">
@@ -6750,34 +6701,34 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
     </row>
     <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="22" t="s">
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="14" t="s">
         <v>238</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
       <c r="E52" s="8" t="s">
         <v>240</v>
       </c>
@@ -6844,12 +6795,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="143.367441860465"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="189.762790697674"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="112.725581395349"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="83.9302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="86.3906976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="176.595348837209"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="234.06511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="138.813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="103.125581395349"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="106.204651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6860,13 +6811,13 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6897,9 +6848,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="184.102325581395"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="176.348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="227.172093023256"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="217.572093023256"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6912,18 +6863,18 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>243</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -6931,7 +6882,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -6939,7 +6890,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -6947,34 +6898,34 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="25" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="25" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>251</v>
       </c>
       <c r="B9" s="0" t="s">
@@ -6982,7 +6933,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -6990,10 +6941,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="25" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7010,14 +6961,14 @@
       <c r="E30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="14" t="s">
         <v>255</v>
       </c>
       <c r="B32" s="0" t="s">
@@ -7053,9 +7004,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="220.525581395349"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="168.102325581395"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="272.33488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="207.604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7066,18 +7017,18 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>258</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -7113,11 +7064,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="268.520930232558"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="176.348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.0697674418605"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="97.4651162790698"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="107.558139534884"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.50697674418605"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="217.572093023256"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="82.4511627906977"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="119.986046511628"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="132.413953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7128,15 +7080,15 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>1</v>
       </c>
     </row>
